--- a/biology/Botanique/Garde_chasse_particulier/Garde_chasse_particulier.xlsx
+++ b/biology/Botanique/Garde_chasse_particulier/Garde_chasse_particulier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les garde-chasses particuliers font partie des gardes particuliers, ils sont des agents chargés de certaines fonctions de police judiciaire. 
 Ils sont à distinguer des techniciens de l'environnement (catégorie B) et agents techniques de l'environnement (catégorie C) qui appartiennent à l'Office Française de la Biodiversité (OFB). Il s'agit d'agents de l'État commissionnés par le ministre chargé de la chasse. Anciennement nommés garde-chasses nationaux, cette dénomination n'a plus cours aujourd'hui.
@@ -513,7 +525,9 @@
           <t>Compétences</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le code de l'environnement prévoit que des gardes-chasse particuliers constatent les infractions à l’exercice de la chasse au préjudice des détenteurs de droit de chasse.
 Article L428-21 du code de l'environnement
@@ -557,7 +571,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pour pouvoir être agréé, les gardes-chasses particuliers doivent suivre une formation, sauf s'ils ont été agréés pendant au moins trois ans comme garde particulier. Cette disposition n'a plus cours depuis le 1er décembre 2006, puisqu'une  formation est désormais obligatoire.
 La formation nécessaire pour remplir les conditions d’aptitude technique exigées pour exercer les fonctions de garde particulier est organisée en modules qui correspondent aux différents domaines d’intervention des gardes particuliers (Art 2 de l'arrêté interministériel du 30 août 2006).
